--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_5_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_5_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,342 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_10</t>
+          <t>model_5_6_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.381966288108772</v>
+        <v>0.5888372462409324</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.881455909566204</v>
+        <v>0.4942242845169035</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9307768739439763</v>
+        <v>-0.3323502640862486</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.505586048822217</v>
+        <v>-0.2500275685021411</v>
       </c>
       <c r="F2" t="n">
-        <v>1.52942943572998</v>
+        <v>0.4550359845161438</v>
       </c>
       <c r="G2" t="n">
-        <v>6.196896076202393</v>
+        <v>0.09782574325799942</v>
       </c>
       <c r="H2" t="n">
-        <v>3.536069869995117</v>
+        <v>2.822684049606323</v>
       </c>
       <c r="I2" t="n">
-        <v>4.944742202758789</v>
+        <v>1.380111813545227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_9</t>
+          <t>model_5_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1916116363257798</v>
+        <v>0.6479096830352905</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.451982772874286</v>
+        <v>0.4930997794804481</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9070090077075879</v>
+        <v>-0.1113359110383625</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.007914987277567</v>
+        <v>-0.05055463411746808</v>
       </c>
       <c r="F3" t="n">
-        <v>1.318762898445129</v>
+        <v>0.3896601796150208</v>
       </c>
       <c r="G3" t="n">
-        <v>4.90962553024292</v>
+        <v>0.09804323315620422</v>
       </c>
       <c r="H3" t="n">
-        <v>3.492541074752808</v>
+        <v>2.354448556900024</v>
       </c>
       <c r="I3" t="n">
-        <v>4.242761135101318</v>
+        <v>1.159880638122559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_8</t>
+          <t>model_5_6_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05193600286676303</v>
+        <v>0.7346129406956121</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.889824415469685</v>
+        <v>0.4803884619004988</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6038388309673777</v>
+        <v>0.2121585545589835</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.632672270189978</v>
+        <v>0.2403833841168397</v>
       </c>
       <c r="F4" t="n">
-        <v>1.164183259010315</v>
+        <v>0.2937052547931671</v>
       </c>
       <c r="G4" t="n">
-        <v>4.403389930725098</v>
+        <v>0.1005018204450607</v>
       </c>
       <c r="H4" t="n">
-        <v>2.937308073043823</v>
+        <v>1.669101119041443</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7134690284729</v>
+        <v>0.8386662006378174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_7</t>
+          <t>model_5_6_24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02059221612206641</v>
+        <v>0.8634594130050202</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.254469997348751</v>
+        <v>-2.919999527193511</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09245397714205406</v>
+        <v>0.90350458106234</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.443458406122487</v>
+        <v>0.5493001649549433</v>
       </c>
       <c r="F5" t="n">
-        <v>1.083915829658508</v>
+        <v>0.1511101871728897</v>
       </c>
       <c r="G5" t="n">
-        <v>4.731760025024414</v>
+        <v>0.7581954598426819</v>
       </c>
       <c r="H5" t="n">
-        <v>2.00074577331543</v>
+        <v>0.2044327855110168</v>
       </c>
       <c r="I5" t="n">
-        <v>3.446576833724976</v>
+        <v>0.4976018965244293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_6</t>
+          <t>model_5_6_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3156227470422976</v>
+        <v>0.8635598900689219</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.778816271330921</v>
+        <v>-2.917547220327829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3826028344304724</v>
+        <v>0.903626561875435</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.654437686312519</v>
+        <v>0.5496385120680531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7574039101600647</v>
+        <v>0.1509989947080612</v>
       </c>
       <c r="G6" t="n">
-        <v>3.40290355682373</v>
+        <v>0.7577211260795593</v>
       </c>
       <c r="H6" t="n">
-        <v>1.130715608596802</v>
+        <v>0.2041743695735931</v>
       </c>
       <c r="I6" t="n">
-        <v>2.333637714385986</v>
+        <v>0.4972283840179443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_5</t>
+          <t>model_5_6_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.508808232837175</v>
+        <v>0.8636515968669233</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.722717437082419</v>
+        <v>-2.915002226891915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6223900451515049</v>
+        <v>0.9037082503600883</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.15097410286034</v>
+        <v>0.5499480497651408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5436045527458191</v>
+        <v>0.1508975028991699</v>
       </c>
       <c r="G7" t="n">
-        <v>2.451864242553711</v>
+        <v>0.7572289705276489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6915637254714966</v>
+        <v>0.2040012925863266</v>
       </c>
       <c r="I7" t="n">
-        <v>1.623486042022705</v>
+        <v>0.4968866407871246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_3</t>
+          <t>model_5_6_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.530900881808416</v>
+        <v>0.8637261040559902</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.549314895240504</v>
+        <v>-2.912639601826039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6584174139488219</v>
+        <v>0.9037445945496916</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07035322048777104</v>
+        <v>0.5502010442245648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5191544890403748</v>
+        <v>0.1508150547742844</v>
       </c>
       <c r="G8" t="n">
-        <v>2.295711755752563</v>
+        <v>0.7567719221115112</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6255823373794556</v>
+        <v>0.203924298286438</v>
       </c>
       <c r="I8" t="n">
-        <v>1.509767651557922</v>
+        <v>0.4966073334217072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_4</t>
+          <t>model_5_6_20</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5484740162455854</v>
+        <v>0.8638970248201603</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.415896717805221</v>
+        <v>-2.909864134284413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6551229811797269</v>
+        <v>0.9040950425312659</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02727266830084729</v>
+        <v>0.5507727237297784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4997062087059021</v>
+        <v>0.1506258994340897</v>
       </c>
       <c r="G9" t="n">
-        <v>2.175565719604492</v>
+        <v>0.7562351226806641</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6316158771514893</v>
+        <v>0.2031818479299545</v>
       </c>
       <c r="I9" t="n">
-        <v>1.44900119304657</v>
+        <v>0.4959761798381805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_2</t>
+          <t>model_5_6_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7426505202131042</v>
+        <v>0.8640196304705711</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06661814971712721</v>
+        <v>-2.907088942858453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7446273731590726</v>
+        <v>0.9042644643263573</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4834569336052578</v>
+        <v>0.5511851305281783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2848100364208221</v>
+        <v>0.1504901945590973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9605120420455933</v>
+        <v>0.7556983232498169</v>
       </c>
       <c r="H10" t="n">
-        <v>0.467695415019989</v>
+        <v>0.2028229087591171</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7286006212234497</v>
+        <v>0.4955207705497742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_1</t>
+          <t>model_5_6_18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8125646385322146</v>
+        <v>0.8640939256185038</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2480287167221159</v>
+        <v>-2.90414521977605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9288070614803523</v>
+        <v>0.9042427876064836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.702341127960791</v>
+        <v>0.5514383541698649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2074357122182846</v>
+        <v>0.1504079550504684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6771659255027771</v>
+        <v>0.7551289796829224</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1303844153881073</v>
+        <v>0.2028688192367554</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4198574125766754</v>
+        <v>0.4952412247657776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_6_0</t>
+          <t>model_5_6_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8184404133023376</v>
+        <v>0.8642222408558685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1863560821908987</v>
+        <v>-2.901470597834491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9989575664212409</v>
+        <v>0.9044473302870364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7243585169447108</v>
+        <v>0.551870295990615</v>
       </c>
       <c r="F12" t="n">
-        <v>0.200932964682579</v>
+        <v>0.1502659618854523</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7327034473419189</v>
+        <v>0.7546117305755615</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001909137237817049</v>
+        <v>0.2024354934692383</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3888011872768402</v>
+        <v>0.4947643876075745</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_16</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.865253383418251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.835634913865393</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9017214994770998</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5555152060171402</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1491247862577438</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7418778538703918</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.208210363984108</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4907400906085968</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_15</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8690580088611385</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.586747464874885</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8917043405919529</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5695536357993636</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1449141949415207</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6937387585639954</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2294324636459351</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4752408266067505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.869593263785492</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.575790826198491</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8926239684191115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5714002699169716</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1443218290805817</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6916195750236511</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2274841666221619</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4732019901275635</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8733199554042395</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.223425341376728</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8734647890988726</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5867779659809276</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1401974856853485</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6234660148620605</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2680743336677551</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4562239944934845</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8741984663184156</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.202343763732646</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8747437827261204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5898887511241961</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1392252296209335</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6193885207176208</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2653646767139435</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4527895152568817</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_11</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8755335870140064</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.180929497691723</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8776668040757006</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.594514934126152</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.137747660279274</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6152465343475342</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2591720521450043</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4476819038391113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8778338455419904</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.947027254833511</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8647086330818787</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6045067767844898</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1352019309997559</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5700058937072754</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2866249084472656</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4366502165794373</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_9</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8836427698598593</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.397724925493826</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8361750341755515</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.629685593957692</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1287731677293777</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4637613296508789</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.347075492143631</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4088512063026428</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_8</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8889912199043855</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.243166659482896</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8418422086488437</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6491382338884997</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.122854009270668</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4338670670986176</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3350691795349121</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3873741924762726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_7</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8941152721269319</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8247078113937885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8232860337385154</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6711916953067605</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.117183193564415</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.352929949760437</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.374381810426712</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3630257546901703</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9021677573809687</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7558597173143753</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8466152616368467</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6986442267197817</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1082714647054672</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3396135568618774</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3249570727348328</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3327163457870483</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_5</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9071919259132205</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.6859297184943385</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8587963207747614</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7161289946209685</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1027111932635307</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3260878622531891</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2991505563259125</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.313412070274353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9106026424444484</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.6138269960458083</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8648846738722308</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7283143827927572</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0989365354180336</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3121419548988342</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.286251962184906</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2999585866928101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_5_6_3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9165642247410861</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5454123320374773</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8807191361546537</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7489586110978714</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09233881533145905</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2989093661308289</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.252705454826355</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2771660387516022</v>
       </c>
     </row>
   </sheetData>
